--- a/data/sm_track.xlsx
+++ b/data/sm_track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasewell/2019-geo511-project-katlynse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BB0E66-F5D5-3C4E-9200-A632C2AA46CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459AD07-01CD-6944-B1F2-D0951F752E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="460" windowWidth="25040" windowHeight="13800" xr2:uid="{16022047-EB59-8E40-9741-FD9C8C479285}"/>
+    <workbookView xWindow="6940" yWindow="780" windowWidth="10000" windowHeight="13800" xr2:uid="{16022047-EB59-8E40-9741-FD9C8C479285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +691,7 @@
         <v>615908</v>
       </c>
       <c r="B41">
-        <v>225755</v>
+        <v>233855</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,14 +756,6 @@
       </c>
       <c r="B50">
         <v>233416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>600078</v>
-      </c>
-      <c r="B51">
-        <v>224781</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/sm_track.xlsx
+++ b/data/sm_track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasewell/2019-geo511-project-katlynse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459AD07-01CD-6944-B1F2-D0951F752E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0EEBE-3983-C24F-BBB2-BB531B26E4CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="780" windowWidth="10000" windowHeight="13800" xr2:uid="{16022047-EB59-8E40-9741-FD9C8C479285}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="18760" windowHeight="13800" xr2:uid="{16022047-EB59-8E40-9741-FD9C8C479285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="7">
   <si>
     <t>Easting</t>
   </si>
   <si>
     <t>Northing</t>
+  </si>
+  <si>
+    <t>pillows</t>
+  </si>
+  <si>
+    <t>Pillows</t>
+  </si>
+  <si>
+    <t>Lobes</t>
+  </si>
+  <si>
+    <t>lobes</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -54,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +77,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,508 +407,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CA892-59A2-A14F-A89A-8111068A5AE6}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A9:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>615839</v>
       </c>
-      <c r="B2">
+      <c r="B10">
         <v>235139</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>615851</v>
       </c>
-      <c r="B3">
+      <c r="B11">
         <v>235159</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>615760</v>
       </c>
-      <c r="B4">
+      <c r="B12">
         <v>235171</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>615860</v>
       </c>
-      <c r="B5">
+      <c r="B13">
         <v>235177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>615861</v>
       </c>
-      <c r="B6">
+      <c r="B14">
         <v>235142</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>615830</v>
       </c>
-      <c r="B7">
+      <c r="B15">
         <v>235135</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>615823</v>
       </c>
-      <c r="B8">
+      <c r="B16">
         <v>235165</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>615809</v>
       </c>
-      <c r="B9">
+      <c r="B17">
         <v>235154</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>615810</v>
       </c>
-      <c r="B10">
+      <c r="B18">
         <v>235154</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>615873</v>
       </c>
-      <c r="B11">
+      <c r="B19">
         <v>235096</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>615898</v>
       </c>
-      <c r="B12">
+      <c r="B20">
         <v>235070</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>615955</v>
       </c>
-      <c r="B13">
+      <c r="B21">
         <v>235012</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>615987</v>
       </c>
-      <c r="B14">
+      <c r="B22">
         <v>234978</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>616053</v>
       </c>
-      <c r="B15">
+      <c r="B23">
         <v>234916</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>616082</v>
       </c>
-      <c r="B16">
+      <c r="B24">
         <v>234886</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>616052</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <v>234825</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>616319</v>
       </c>
-      <c r="B20">
+      <c r="B28">
         <v>234370</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>616246</v>
       </c>
-      <c r="B21">
+      <c r="B29">
         <v>234329</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>616212</v>
       </c>
-      <c r="B23">
+      <c r="B31">
         <v>234302</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>616218</v>
       </c>
-      <c r="B24">
+      <c r="B32">
         <v>234317</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>616144</v>
       </c>
-      <c r="B25">
+      <c r="B33">
         <v>234279</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>616094</v>
       </c>
-      <c r="B26">
+      <c r="B34">
         <v>234257</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>616009</v>
       </c>
-      <c r="B27">
+      <c r="B35">
         <v>234213</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>615944</v>
       </c>
-      <c r="B28">
+      <c r="B36">
         <v>234182</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>615884</v>
       </c>
-      <c r="B29">
+      <c r="B37">
         <v>234151</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>615848</v>
       </c>
-      <c r="B30">
+      <c r="B38">
         <v>234133</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>615847</v>
       </c>
-      <c r="B31">
+      <c r="B39">
         <v>234132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>615831</v>
       </c>
-      <c r="B32">
+      <c r="B40">
         <v>234124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>615790</v>
       </c>
-      <c r="B33">
+      <c r="B41">
         <v>234096</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>615778</v>
       </c>
-      <c r="B34">
+      <c r="B42">
         <v>234082</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>615766</v>
       </c>
-      <c r="B35">
+      <c r="B43">
         <v>234066</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>615733</v>
       </c>
-      <c r="B36">
+      <c r="B44">
         <v>234028</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>615736</v>
       </c>
-      <c r="B37">
+      <c r="B45" s="1">
         <v>233961</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>615756</v>
       </c>
-      <c r="B38">
+      <c r="B46">
         <v>233939</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>615815</v>
       </c>
-      <c r="B39">
+      <c r="B47">
         <v>233861</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>615863</v>
       </c>
-      <c r="B40">
+      <c r="B48">
         <v>233813</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>615908</v>
       </c>
-      <c r="B41">
+      <c r="B49">
         <v>233855</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>615918</v>
       </c>
-      <c r="B42">
+      <c r="B50">
         <v>233736</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>615924</v>
       </c>
-      <c r="B43">
+      <c r="B51">
         <v>233723</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>615917</v>
       </c>
-      <c r="B44">
+      <c r="B52">
         <v>233659</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>615979</v>
       </c>
-      <c r="B45">
+      <c r="B53">
         <v>233639</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>616010</v>
       </c>
-      <c r="B46">
+      <c r="B54">
         <v>233587</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>616034</v>
       </c>
-      <c r="B47">
+      <c r="B55">
         <v>233538</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>616046</v>
       </c>
-      <c r="B48">
+      <c r="B56">
         <v>233508</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>616063</v>
       </c>
-      <c r="B50">
+      <c r="B58">
         <v>233416</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>616065</v>
       </c>
-      <c r="B52">
+      <c r="B60">
         <v>233404</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>616085</v>
       </c>
-      <c r="B53">
+      <c r="B61">
         <v>233373</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>616117</v>
       </c>
-      <c r="B54">
+      <c r="B62">
         <v>233307</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>616140</v>
       </c>
-      <c r="B55">
+      <c r="B63">
         <v>233255</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>616160</v>
       </c>
-      <c r="B56">
+      <c r="B64">
         <v>233217</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>616176</v>
       </c>
-      <c r="B57">
+      <c r="B65">
         <v>233176</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>616180</v>
       </c>
-      <c r="B58">
+      <c r="B66">
         <v>233151</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>616180</v>
       </c>
-      <c r="B59">
+      <c r="B67">
         <v>233151</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>616194</v>
       </c>
-      <c r="B60">
+      <c r="B68">
         <v>233125</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>616240</v>
       </c>
-      <c r="B61">
+      <c r="B69">
         <v>233030</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>616267</v>
       </c>
-      <c r="B64">
+      <c r="B72">
         <v>232978</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>616302</v>
       </c>
-      <c r="B65">
+      <c r="B73">
         <v>232967</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>616331</v>
       </c>
-      <c r="B66">
+      <c r="B74">
         <v>232913</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>616338</v>
       </c>
-      <c r="B67">
+      <c r="B75">
         <v>232879</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>616327</v>
       </c>
-      <c r="B68">
+      <c r="B76">
         <v>232792</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>616302</v>
       </c>
-      <c r="B69">
+      <c r="B77">
         <v>232770</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
